--- a/blog/saskatchewan_suicides/data_saskatchewan_suicides.xlsx
+++ b/blog/saskatchewan_suicides/data_saskatchewan_suicides.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Race" sheetId="2" r:id="rId1"/>
@@ -196,7 +196,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -212,6 +212,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -506,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T15"/>
+  <dimension ref="A1:V15"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="V16" sqref="V16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -517,7 +518,7 @@
     <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:22">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -578,8 +579,14 @@
       <c r="T1" s="14">
         <v>2022</v>
       </c>
-    </row>
-    <row r="2" spans="1:20">
+      <c r="U1" s="15">
+        <v>2023</v>
+      </c>
+      <c r="V1" s="15">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
@@ -638,10 +645,16 @@
         <v>18</v>
       </c>
       <c r="T2" s="9">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20">
+        <v>23</v>
+      </c>
+      <c r="U2" s="15">
+        <v>31</v>
+      </c>
+      <c r="V2" s="15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
@@ -697,13 +710,19 @@
         <v>28</v>
       </c>
       <c r="S3" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T3" s="9">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
+        <v>41</v>
+      </c>
+      <c r="U3" s="15">
+        <v>40</v>
+      </c>
+      <c r="V3" s="15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -764,8 +783,14 @@
       <c r="T4" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:20">
+      <c r="U4" s="15">
+        <v>2</v>
+      </c>
+      <c r="V4" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
       <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
@@ -818,8 +843,14 @@
       <c r="T5" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:20">
+      <c r="U5" s="15">
+        <v>0</v>
+      </c>
+      <c r="V5" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6" s="6" t="s">
         <v>2</v>
       </c>
@@ -880,8 +911,14 @@
       <c r="T6" s="9">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:20">
+      <c r="U6" s="15">
+        <v>2</v>
+      </c>
+      <c r="V6" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7" s="6" t="s">
         <v>2</v>
       </c>
@@ -942,8 +979,14 @@
       <c r="T7" s="9">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:20">
+      <c r="U7" s="15">
+        <v>0</v>
+      </c>
+      <c r="V7" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
       <c r="A8" s="10" t="s">
         <v>2</v>
       </c>
@@ -1004,8 +1047,14 @@
       <c r="T8" s="13">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:20">
+      <c r="U8" s="15">
+        <v>0</v>
+      </c>
+      <c r="V8" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -1061,13 +1110,19 @@
         <v>84</v>
       </c>
       <c r="S9" s="4">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="T9" s="5">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
+        <v>92</v>
+      </c>
+      <c r="U9" s="15">
+        <v>95</v>
+      </c>
+      <c r="V9" s="15">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
       <c r="A10" s="6" t="s">
         <v>10</v>
       </c>
@@ -1123,13 +1178,19 @@
         <v>50</v>
       </c>
       <c r="S10" s="8">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T10" s="9">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
+        <v>65</v>
+      </c>
+      <c r="U10" s="15">
+        <v>40</v>
+      </c>
+      <c r="V10" s="15">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
       <c r="A11" s="6" t="s">
         <v>10</v>
       </c>
@@ -1190,8 +1251,14 @@
       <c r="T11" s="9">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:20">
+      <c r="U11" s="15">
+        <v>1</v>
+      </c>
+      <c r="V11" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
       <c r="A12" s="6" t="s">
         <v>10</v>
       </c>
@@ -1252,8 +1319,14 @@
       <c r="T12" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:20">
+      <c r="U12" s="15">
+        <v>0</v>
+      </c>
+      <c r="V12" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
       <c r="A13" s="6" t="s">
         <v>10</v>
       </c>
@@ -1314,8 +1387,14 @@
       <c r="T13" s="9">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:20">
+      <c r="U13" s="15">
+        <v>2</v>
+      </c>
+      <c r="V13" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
       <c r="A14" s="6" t="s">
         <v>10</v>
       </c>
@@ -1376,8 +1455,14 @@
       <c r="T14" s="9">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:20">
+      <c r="U14" s="15">
+        <v>4</v>
+      </c>
+      <c r="V14" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
       <c r="A15" s="10" t="s">
         <v>10</v>
       </c>
@@ -1436,7 +1521,13 @@
         <v>7</v>
       </c>
       <c r="T15" s="13">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="U15" s="15">
+        <v>5</v>
+      </c>
+      <c r="V15" s="15">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1446,10 +1537,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:V21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V22" sqref="V22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1457,7 +1548,7 @@
     <col min="2" max="2" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:22">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1518,8 +1609,14 @@
       <c r="T1" s="5">
         <v>2022</v>
       </c>
-    </row>
-    <row r="2" spans="1:20">
+      <c r="U1" s="15">
+        <v>2023</v>
+      </c>
+      <c r="V1" s="15">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
@@ -1580,8 +1677,14 @@
       <c r="T2" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:20">
+      <c r="U2" s="15">
+        <v>1</v>
+      </c>
+      <c r="V2" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
@@ -1642,8 +1745,14 @@
       <c r="T3" s="9">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:20">
+      <c r="U3" s="15">
+        <v>11</v>
+      </c>
+      <c r="V3" s="15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -1702,10 +1811,16 @@
         <v>24</v>
       </c>
       <c r="T4" s="9">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
+        <v>26</v>
+      </c>
+      <c r="U4" s="15">
+        <v>20</v>
+      </c>
+      <c r="V4" s="15">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
       <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
@@ -1761,13 +1876,19 @@
         <v>13</v>
       </c>
       <c r="S5" s="8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="T5" s="9">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
+        <v>17</v>
+      </c>
+      <c r="U5" s="15">
+        <v>18</v>
+      </c>
+      <c r="V5" s="15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6" s="6" t="s">
         <v>2</v>
       </c>
@@ -1826,10 +1947,16 @@
         <v>2</v>
       </c>
       <c r="T6" s="9">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
+        <v>14</v>
+      </c>
+      <c r="U6" s="15">
+        <v>9</v>
+      </c>
+      <c r="V6" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7" s="6" t="s">
         <v>2</v>
       </c>
@@ -1888,10 +2015,16 @@
         <v>7</v>
       </c>
       <c r="T7" s="9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
+        <v>18</v>
+      </c>
+      <c r="U7" s="15">
+        <v>11</v>
+      </c>
+      <c r="V7" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
       <c r="A8" s="6" t="s">
         <v>2</v>
       </c>
@@ -1952,8 +2085,14 @@
       <c r="T8" s="9">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:20">
+      <c r="U8" s="15">
+        <v>4</v>
+      </c>
+      <c r="V8" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
       <c r="A9" s="6" t="s">
         <v>2</v>
       </c>
@@ -2014,8 +2153,14 @@
       <c r="T9" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:20">
+      <c r="U9" s="15">
+        <v>1</v>
+      </c>
+      <c r="V9" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
       <c r="A10" s="6" t="s">
         <v>2</v>
       </c>
@@ -2076,8 +2221,14 @@
       <c r="T10" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:20">
+      <c r="U10" s="15">
+        <v>0</v>
+      </c>
+      <c r="V10" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
       <c r="A11" s="10" t="s">
         <v>2</v>
       </c>
@@ -2138,8 +2289,14 @@
       <c r="T11" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:20">
+      <c r="U11" s="15">
+        <v>0</v>
+      </c>
+      <c r="V11" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
@@ -2200,8 +2357,14 @@
       <c r="T12" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:20">
+      <c r="U12" s="15">
+        <v>0</v>
+      </c>
+      <c r="V12" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
       <c r="A13" s="6" t="s">
         <v>10</v>
       </c>
@@ -2257,13 +2420,19 @@
         <v>14</v>
       </c>
       <c r="S13" s="8">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="T13" s="9">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
+        <v>10</v>
+      </c>
+      <c r="U13" s="15">
+        <v>12</v>
+      </c>
+      <c r="V13" s="15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
       <c r="A14" s="6" t="s">
         <v>10</v>
       </c>
@@ -2319,13 +2488,19 @@
         <v>35</v>
       </c>
       <c r="S14" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="T14" s="9">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
+        <v>41</v>
+      </c>
+      <c r="U14" s="15">
+        <v>29</v>
+      </c>
+      <c r="V14" s="15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
       <c r="A15" s="6" t="s">
         <v>10</v>
       </c>
@@ -2381,13 +2556,19 @@
         <v>28</v>
       </c>
       <c r="S15" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="T15" s="9">
         <v>40</v>
       </c>
-    </row>
-    <row r="16" spans="1:20">
+      <c r="U15" s="15">
+        <v>23</v>
+      </c>
+      <c r="V15" s="15">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
       <c r="A16" s="6" t="s">
         <v>10</v>
       </c>
@@ -2443,13 +2624,19 @@
         <v>20</v>
       </c>
       <c r="S16" s="8">
+        <v>26</v>
+      </c>
+      <c r="T16" s="9">
+        <v>27</v>
+      </c>
+      <c r="U16" s="15">
         <v>24</v>
       </c>
-      <c r="T16" s="9">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
+      <c r="V16" s="15">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22">
       <c r="A17" s="6" t="s">
         <v>10</v>
       </c>
@@ -2505,13 +2692,19 @@
         <v>21</v>
       </c>
       <c r="S17" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T17" s="9">
         <v>31</v>
       </c>
-    </row>
-    <row r="18" spans="1:20">
+      <c r="U17" s="15">
+        <v>30</v>
+      </c>
+      <c r="V17" s="15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
       <c r="A18" s="6" t="s">
         <v>10</v>
       </c>
@@ -2572,8 +2765,14 @@
       <c r="T18" s="9">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="1:20">
+      <c r="U18" s="15">
+        <v>22</v>
+      </c>
+      <c r="V18" s="15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22">
       <c r="A19" s="6" t="s">
         <v>10</v>
       </c>
@@ -2634,8 +2833,14 @@
       <c r="T19" s="9">
         <v>7</v>
       </c>
-    </row>
-    <row r="20" spans="1:20">
+      <c r="U19" s="15">
+        <v>6</v>
+      </c>
+      <c r="V19" s="15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22">
       <c r="A20" s="6" t="s">
         <v>10</v>
       </c>
@@ -2696,8 +2901,14 @@
       <c r="T20" s="9">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:20">
+      <c r="U20" s="15">
+        <v>1</v>
+      </c>
+      <c r="V20" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22">
       <c r="A21" s="10" t="s">
         <v>10</v>
       </c>
@@ -2756,6 +2967,12 @@
         <v>2</v>
       </c>
       <c r="T21" s="13">
+        <v>1</v>
+      </c>
+      <c r="U21" s="15">
+        <v>1</v>
+      </c>
+      <c r="V21" s="15">
         <v>1</v>
       </c>
     </row>
